--- a/实验结果/变换优化结果+HM总结果.xlsx
+++ b/实验结果/变换优化结果+HM总结果.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donnie\Desktop\论文材料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donnie\Desktop\论文材料\实验结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1863C79-970F-40C4-934B-C5B509A333F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52C62B6-C57F-41BF-9FEF-4551569E183F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8340" xr2:uid="{70E0D211-C392-405E-88C0-7CD7209B7D38}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8340" activeTab="2" xr2:uid="{70E0D211-C392-405E-88C0-7CD7209B7D38}"/>
   </bookViews>
   <sheets>
     <sheet name="FDST优化" sheetId="2" r:id="rId1"/>
-    <sheet name="蝶形优化" sheetId="3" r:id="rId2"/>
-    <sheet name="HM总体优化" sheetId="4" r:id="rId3"/>
+    <sheet name="方法选择" sheetId="5" r:id="rId2"/>
+    <sheet name="蝶形优化" sheetId="3" r:id="rId3"/>
+    <sheet name="HM总体优化" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>Traffic_2560x1600_30</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,13 +69,94 @@
     <t>测试序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PBF4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBF32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUDA_PBF32_SK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUDA_PBF32_MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速比_SK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速比_MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBF16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBF8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUDA_PBF16_SK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUDA_PBF8_SK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUDA_PBF4_SK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速比_32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速比_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速比_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速比_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUDA_ACC_HM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速比1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速比2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -115,12 +197,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -137,6 +228,5983 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>快速</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>DST</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>函数并行优化结果</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FDST优化!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FDST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>FDST优化!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FDST优化!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.5900000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30420000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35633999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80688000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.60398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39F1-4B2B-A646-7B34F0EBDA1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FDST优化!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA_FDST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>FDST优化!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FDST优化!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.4392327289075382E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1421289241085035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21329406815313423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27364460144371061</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56647009267059811</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1678048780487804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-39F1-4B2B-A646-7B34F0EBDA1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1749158224"/>
+        <c:axId val="1770656016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1749158224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1770656016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1770656016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000_);[Red]\(0.000\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1749158224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>2种蝶形变换并行优化结果</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>方法选择!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PBF32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>方法选择!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>方法选择!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.4979999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20075000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50507999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0426800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF93-46B8-8D6D-03FFC381F0E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>方法选择!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA_PBF32_SK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>方法选择!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>方法选择!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.0794265215300974E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2685929026305722E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6441262858422351E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8822967949362004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2082698264418111E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13029753945740599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF93-46B8-8D6D-03FFC381F0E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>方法选择!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA_PBF32_MS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>方法选择!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>方法选择!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4956357419238726E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9585873851338441E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4095348086754192E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2082294264339154E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6701192778235148E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20229715571766715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FF93-46B8-8D6D-03FFC381F0E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1749158224"/>
+        <c:axId val="1770656016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1749158224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1770656016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1770656016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000_);[Red]\(0.000\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1749158224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>种蝶形变换并行优化结果</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>蝶形优化!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PBF32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>蝶形优化!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>蝶形优化!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.4979999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20075000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50507999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0426800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06CD-450D-A27F-095ECB3C3CCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>蝶形优化!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA_PBF32_SK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>蝶形优化!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>蝶形优化!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.0794265215300974E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2685929026305722E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6441262858422351E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8822967949362004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2082698264418111E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13029753945740599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-06CD-450D-A27F-095ECB3C3CCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>蝶形优化!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA_PBF32_MS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>蝶形优化!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>蝶形优化!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4099214405507988E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0755863186186076E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8007156515647782E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5697620158656088E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4396818382677865E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16751224997991807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-06CD-450D-A27F-095ECB3C3CCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1749158224"/>
+        <c:axId val="1770656016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1749158224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1770656016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1770656016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000_);[Red]\(0.000\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1749158224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>蝶形</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>DCT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+              <a:t>函数并行优化结果</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+              <a:t>-2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>蝶形优化!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PBF32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>蝶形优化!$A$25:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>蝶形优化!$B$25:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.4979999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20075000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50507999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0426800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F110-4B5C-89AE-DC043A87B970}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>蝶形优化!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA_PBF32_SK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>蝶形优化!$A$25:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>蝶形优化!$C$25:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.0794265215300974E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2685929026305722E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6441262858422351E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8822967949362004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2082698264418111E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13029753945740599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F110-4B5C-89AE-DC043A87B970}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>蝶形优化!$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PBF16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>蝶形优化!$A$25:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>蝶形优化!$D$25:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1430000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2960000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16347999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18618000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41687999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86309999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-F110-4B5C-89AE-DC043A87B970}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>蝶形优化!$E$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA_PBF16_SK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>蝶形优化!$A$25:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>蝶形优化!$E$25:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2612559590371374E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1892374679021989E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9632107023411359E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10880084151472651</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2360989975647052</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51509906899021241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-F110-4B5C-89AE-DC043A87B970}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>蝶形优化!$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PBF8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>蝶形优化!$A$25:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>蝶形优化!$F$25:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9730000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15581999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35064000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70806000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-F110-4B5C-89AE-DC043A87B970}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>蝶形优化!$G$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA_PBF8_SK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>蝶形优化!$A$25:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>蝶形优化!$G$25:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.161202989818139E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4378698224852069E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3282526454301222E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1058906030855535E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1985841309395707</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42257101933635716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-F110-4B5C-89AE-DC043A87B970}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>蝶形优化!$H$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PBF4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>蝶形优化!$A$25:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>蝶形优化!$H$25:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.8599999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4230000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4610000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.984E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2520000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-F110-4B5C-89AE-DC043A87B970}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>蝶形优化!$I$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA_PBF4_SK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>蝶形优化!$A$25:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>蝶形优化!$I$25:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.1807974538060292E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0366478944271668E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7364010120177105E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1961492178098676E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5415715683077936E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15295788770053476</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-F110-4B5C-89AE-DC043A87B970}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1749158224"/>
+        <c:axId val="1770656016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1749158224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1770656016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1770656016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000_);[Red]\(0.000\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1749158224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HM</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>整体优化结果</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HM总体优化!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HM总体优化!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HM总体优化!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1568700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7678499999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.63842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.098140000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.636699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.041719999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F92-414C-918E-32AAABD8F07B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HM总体优化!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA_ACC_HM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HM总体优化!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>BQSquare_416x240_60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BQMall_832_480_60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ChinaSpeed_1024x768_30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Johnny_1280x720_60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BasketballDrive_1920x1080_50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Traffic_2560x1600_30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HM总体优化!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8015953892415637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3543449085723873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.265119396732301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.311659830919895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.470543743171696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.018959420777904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3F92-414C-918E-32AAABD8F07B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1749158224"/>
+        <c:axId val="1770656016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1749158224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1991218556835602E-2"/>
+              <c:y val="0.3659234828821234"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1770656016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1770656016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000_);[Red]\(0.000\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1749158224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3341C1F4-51D4-4B6C-A3B4-F818CC64A38B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>424242</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>65895</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31EB307A-0CD9-4FEF-844F-5D67806CD2B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC7F90CF-553E-49EE-9BE1-B34E1B01EB19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>376686</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>151108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1143828</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>45553</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2020C9CA-8A6E-467A-A671-9A8B9CFAFD7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>357567</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>151620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC2B55F-E1C1-4524-83E6-27B43035B271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,10 +6504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8362BD-CD52-4959-B0E1-B0F9FD64DFED}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -452,13 +6520,13 @@
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -466,101 +6534,949 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="3">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C7" si="0">B2/D2</f>
+        <v>3.4392327289075382E-2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.3346</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="3">
+        <v>0.18653</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1421289241085035</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.3124</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="3">
+        <v>0.30420000000000003</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21329406815313423</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.4261999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B5" s="3">
+        <v>0.35633999999999999</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.27364460144371061</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.3022</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B6" s="3">
+        <v>0.80688000000000004</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.56647009267059811</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.4244000000000001</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B7" s="3">
+        <v>1.60398</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1678048780487804</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.3734999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <f>AVERAGE(D2:D7)</f>
+        <v>1.3622166666666669</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47002A02-3A53-45A0-A73B-BD9CC2C8468F}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15FF469-067E-471C-A64E-FA92C2B739F4}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="3">
+        <v>2.4979999999999999E-2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3.0794265215300974E-3</v>
+      </c>
+      <c r="D2" s="1">
+        <f>B2/F2</f>
+        <v>4.4956357419238726E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8.1119000000000003</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5.5564999999999998</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="3">
+        <v>0.11275</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.2685929026305722E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D8" si="0">B3/F3</f>
+        <v>1.9585873851338441E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8.8878000000000004</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.7567000000000004</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="3">
+        <v>0.20075000000000001</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.6441262858422351E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4095348086754192E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7.5922999999999998</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5.8879000000000001</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B5" s="3">
+        <v>0.22950000000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.8822967949362004E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2082294264339154E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7.9623999999999997</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.4535999999999998</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B6" s="3">
+        <v>0.50507999999999997</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6.2082698264418111E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>9.6701192778235148E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8.1356000000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5.2230999999999996</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.0426800000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.13029753945740599</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.20229715571766715</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8.0023</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.1542000000000003</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D8" s="1"/>
+      <c r="E8">
+        <f>AVERAGE(E2:E7)</f>
+        <v>8.1153833333333321</v>
+      </c>
+      <c r="F8" s="4">
+        <f>AVERAGE(F2:F7)</f>
+        <v>5.5053333333333327</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56946EFD-62A5-4DD0-8B96-B64DAFEB4C4D}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47002A02-3A53-45A0-A73B-BD9CC2C8468F}">
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.4979999999999999E-2</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C7" si="0">B2/E2</f>
+        <v>3.0794265215300974E-3</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D7" si="1">B2/F2</f>
+        <v>4.4099214405507988E-3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8.1119000000000003</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5.6645000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.11275</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2685929026305722E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0755863186186076E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>8.8878000000000004</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5.4321999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.20075000000000001</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6441262858422351E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="1"/>
+        <v>3.8007156515647782E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7.5922999999999998</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5.2819000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.22950000000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8822967949362004E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5697620158656088E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7.9623999999999997</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6.4290000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.50507999999999997</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>6.2082698264418111E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>7.4396818382677865E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>8.1356000000000002</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6.7889999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.0426800000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.13029753945740599</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.16751224997991807</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8.0023</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6.2244999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2.4979999999999999E-2</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:C30" si="2">B25/J25</f>
+        <v>3.0794265215300974E-3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2.1430000000000001E-2</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" ref="E25:E30" si="3">D25/K25</f>
+        <v>1.2612559590371374E-2</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1.9730000000000001E-2</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" ref="G25:G30" si="4">F25/K25</f>
+        <v>1.161202989818139E-2</v>
+      </c>
+      <c r="H25" s="3">
+        <v>5.8599999999999998E-3</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" ref="I25:I30" si="5">H25/M25</f>
+        <v>5.1807974538060292E-3</v>
+      </c>
+      <c r="J25" s="2">
+        <v>8.1119000000000003</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1.6991000000000001</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1.3536999999999999</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1.1311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.11275</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2685929026305722E-2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>9.2960000000000001E-2</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1892374679021989E-2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="4"/>
+        <v>4.4378698224852069E-2</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2.4230000000000002E-2</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="5"/>
+        <v>2.0366478944271668E-2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>8.8878000000000004</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1.7914000000000001</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1.3297000000000001</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1.1897</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.20075000000000001</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="2"/>
+        <v>2.6441262858422351E-2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.16347999999999999</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="3"/>
+        <v>8.9632107023411359E-2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.13366</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="4"/>
+        <v>7.3282526454301222E-2</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3.4610000000000002E-2</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="5"/>
+        <v>2.7364010120177105E-2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>7.5922999999999998</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1.8239000000000001</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1.4471000000000001</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1.2647999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.22950000000000001</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8822967949362004E-2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.18618000000000001</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="3"/>
+        <v>0.10880084151472651</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.15581999999999999</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="4"/>
+        <v>9.1058906030855535E-2</v>
+      </c>
+      <c r="H28" s="3">
+        <v>3.984E-2</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="5"/>
+        <v>3.1961492178098676E-2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>7.9623999999999997</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1.7112000000000001</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1.4525999999999999</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1.2464999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.50507999999999997</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="2"/>
+        <v>6.2082698264418111E-2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.41687999999999997</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="3"/>
+        <v>0.2360989975647052</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.35064000000000001</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="4"/>
+        <v>0.1985841309395707</v>
+      </c>
+      <c r="H29" s="3">
+        <v>9.2520000000000005E-2</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="5"/>
+        <v>7.5415715683077936E-2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>8.1356000000000002</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1.7657</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1.3898999999999999</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1.2267999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1.0426800000000001</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13029753945740599</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="3"/>
+        <v>0.51509906899021241</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.70806000000000002</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="4"/>
+        <v>0.42257101933635716</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.18306</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="5"/>
+        <v>0.15295788770053476</v>
+      </c>
+      <c r="J30" s="2">
+        <v>8.0023</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1.6756</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1.4907999999999999</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1.1968000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J31" s="2">
+        <f>AVERAGE(J25:J30)</f>
+        <v>8.1153833333333321</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" ref="K31:M31" si="6">AVERAGE(K25:K30)</f>
+        <v>1.7444833333333332</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4106333333333332</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="6"/>
+        <v>1.2092833333333335</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56946EFD-62A5-4DD0-8B96-B64DAFEB4C4D}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2.1568700000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2/D2</f>
+        <v>1.8015953892415637</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.1972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>8.7678499999999993</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C7" si="0">B3/D3</f>
+        <v>7.3543449085723873</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.1921999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>14.63842</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>12.265119396732301</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.1935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>17.098140000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>14.311659830919895</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.1947000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>38.636699999999998</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>32.470543743171696</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.1899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
+        <v>76.041719999999998</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>64.018959420777904</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.1878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8">
+        <f>AVERAGE(D2:D7)</f>
+        <v>1.19255</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>